--- a/Excel VBA x UiPath/Add Borders/Input/SampleData.xlsx
+++ b/Excel VBA x UiPath/Add Borders/Input/SampleData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA_UiPath\Excel VBA x RPA\Add Borders\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YenLin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Column_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,10 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note : ………</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,31 +241,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,10 +549,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -556,228 +560,231 @@
     <col min="1" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="9">
         <v>9</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>11</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>12</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="7">
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>14</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="7">
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="7">
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="7">
         <v>18</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="7">
         <v>19</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
@@ -785,6 +792,14 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -831,7 +846,7 @@
       <c r="B2" s="1">
         <v>21</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -840,7 +855,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="11"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
@@ -849,13 +864,13 @@
       <c r="B4" s="1">
         <v>23</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="5">
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -866,7 +881,7 @@
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
